--- a/public/tmp/Blog.xlsx
+++ b/public/tmp/Blog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A749DC-A18F-45A7-9064-BF4D451F62C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE29BCE-6363-45CB-AE3D-1DAC1DE00496}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>About every day</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>xyz</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
   </si>
   <si>
     <t>fferfgeger</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -522,17 +534,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -542,8 +554,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -557,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -659,6 +671,20 @@
       </c>
       <c r="D10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/Blog.xlsx
+++ b/public/tmp/Blog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE29BCE-6363-45CB-AE3D-1DAC1DE00496}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F8571-F3D7-4F0E-A24E-039724814B3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>About every day</t>
   </si>
@@ -97,6 +97,57 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>hvhv</t>
+  </si>
+  <si>
+    <t>bfgbg</t>
+  </si>
+  <si>
+    <t>bbfb</t>
+  </si>
+  <si>
+    <t>bfb</t>
+  </si>
+  <si>
+    <t>bdfbb</t>
+  </si>
+  <si>
+    <t>bfbdfb</t>
+  </si>
+  <si>
+    <t>bfbfd</t>
+  </si>
+  <si>
+    <t>bdfbdf</t>
+  </si>
+  <si>
+    <t>sdv</t>
+  </si>
+  <si>
+    <t>parent_category</t>
+  </si>
+  <si>
+    <t>bbrf</t>
+  </si>
+  <si>
+    <t>grgtghth</t>
+  </si>
+  <si>
+    <t>vrver</t>
+  </si>
+  <si>
+    <t>vrvbrt</t>
+  </si>
+  <si>
+    <t>rgrg</t>
+  </si>
+  <si>
+    <t>vvrtvb</t>
+  </si>
+  <si>
+    <t>vbfbrt</t>
   </si>
 </sst>
 </file>
@@ -521,169 +572,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="1024" width="11.5703125"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
